--- a/reference/Core6ResourcesTable20231112.xlsx
+++ b/reference/Core6ResourcesTable20231112.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/table_html/table2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4150CA-1CFC-1F4A-96A8-643DD426377E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4CEF0E-1A42-D148-A09C-BDEDFB94543E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-260" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllergyIntoleranceTable" sheetId="2" r:id="rId1"/>
@@ -19,11 +19,13 @@
     <sheet name="ObservationLabTable" sheetId="11" r:id="rId4"/>
     <sheet name="dosageInstructionTable" sheetId="7" r:id="rId5"/>
     <sheet name="Encounter" sheetId="10" r:id="rId6"/>
+    <sheet name="BundleTable" sheetId="13" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_ftn1" localSheetId="2">MedicationRequestTable!#REF!</definedName>
     <definedName name="_ftnref1" localSheetId="2">MedicationRequestTable!$I$46</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">AllergyIntoleranceTable!$A$1:$I$111</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">BundleTable!$A$1:$I$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">Encounter!$A$1:$I$54</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3149" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3278" uniqueCount="915">
   <si>
     <t>要素Lv1</t>
   </si>
@@ -8146,12 +8148,421 @@
     </rPh>
     <phoneticPr fontId="26"/>
   </si>
+  <si>
+    <t>Bundleリソースであることを示す。</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>"Bundle"</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/clins/StructureDefinition/JP_Bundle_CLINS</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t xml:space="preserve">準拠しているプロファイルを受信側に通知したい場合には、本文書のプロファイルを識別するURLを指定する。
+http://jpfhir.jp/fhir/clins/StructureDefinition/JP_Bundle_CLINS　を設定する。
+</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>本リソースのメタデータ。
+CLINSでのBundleリソースに含まれる６情報リソースカテゴリーをmeta.tag要素に記述する。</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>固定値 http://jpfhir.jp/fhir/clins/CodeSystem/BundleResourceType_CS　を設定する。</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/clins/CodeSystem/BundleResourceType_CS</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Bundleリソースに含まれる６情報リソースカテゴリーのいずれかをhhttp://jpfhir.jp/fhir/clins/ValueSet/BundleResourceType_VSのValuseSetから設定する。
+具体的には、"AllergyIntolerance"、"Condition"、"Observation"、"MedicationRequest"　のいずれかの値を設定する。
+</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>"Observation"</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>この文書Bundleの固定識別子。Bundle作成時にシステムが設定する。
+Bundleリソースのidentifier要素は、電子カルテ情報共有サービス側で保存される。送信側は、後続の送信においてこのidentifierを指定することで、受信側は過去に受信したBundleリソースを特定し、それに含まれていた全データについて削除、更新などの処理を行うためにこれを使用する。</t>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">ジュシｎ </t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t xml:space="preserve">レキ </t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t xml:space="preserve">カンリ </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">バンゴウ </t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t xml:space="preserve">ジュシン </t>
+    </rPh>
+    <rPh sb="121" eb="122">
+      <t xml:space="preserve">ガワ </t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t xml:space="preserve">ジュシン </t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t xml:space="preserve">トクテイ </t>
+    </rPh>
+    <rPh sb="181" eb="183">
+      <t xml:space="preserve">シヨウ </t>
+    </rPh>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/clins/bundle-identifier</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t xml:space="preserve">固定値　"http://jpfhir.jp/fhir/clins/bundle-identifier"を設定する。 </t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">コテイチ </t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t xml:space="preserve">セッテイ </t>
+    </rPh>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>"collection"</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>Bundleリソースのタイプ。本仕様では"collection"固定とする。</t>
+    <rPh sb="15" eb="16">
+      <t xml:space="preserve">ホン </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">シヨウ </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">コテイ </t>
+    </rPh>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">以下に記載する[報告単位識別ID]　を設定する。
+[報告単位識別ID]： 次の３つの文字列を半角ハット記号（^）で連携した文字列。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>【保険医療機関番号10桁】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">：（内訳：都道府県番号２桁、点数表コード（医療機関区分）１桁、医療機関番号７桁）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>【被保険者個人識別子】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">：　６情報送信仕様に記載の「6:被保険者個人識別子の格納」の仕様に従う。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>【報告単位のデータを医療機関のシステムとして医療機関内で一意に識別できる粒度のID文字列】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>：当該システムが当該患者データの中で一意性を保証できるよう生成した半角文字列（英大文字、数字、ハイフン記号のみ可）。最大128文字とすること。"</t>
+    </r>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>"2021-02-01T13:28:17.239+09:00"</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>このリソースを生成した日時。時刻の精度はミリ秒とし、タイムゾーンを含めること。</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>entry[*]</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>BackboneElement</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>Bundleに含まれる全リソースエントリを格納する。</t>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">カクノウ </t>
+    </rPh>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>entry[+]</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>fullUrl</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>"urn:uuid:179f9f7f-e546-04c2-6888-a9e0b24e5720"</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>エントリリスト内の各リソースを一意に識別するためのUUID。</t>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">カクコジン </t>
+    </rPh>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>entry[=]</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>resource</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>Resource(JP_Patient_CLINS_eCS)</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>{
+        "resourceType": "Patient",
+        "id": "InlineExample-Patient-standard",
+        "meta": {
+          "profile": [
+            "http://jpfhir.jp/fhir/clins/StructureDefinition/JP_Patient_eCS"
+          ]
+        }, 
+&lt;以降省略&gt;</t>
+    <rPh sb="227" eb="229">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
+    <rPh sb="229" eb="231">
+      <t xml:space="preserve">ショウリャク </t>
+    </rPh>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>　　　：：：　（リソースインスタンスの数だけ繰り返し（）</t>
+    <rPh sb="8" eb="9">
+      <t xml:space="preserve">クリカエシ </t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t xml:space="preserve">カズ </t>
+    </rPh>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>"urn:uuid:3e6a0ba2-d781-4fd7-9de6-e077b690daed"</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>Resource(JP_Conditon_CLINS_eCS|JP_Observation_LabResult_CLINS_eCS|JP_MedicationRequest_CLINS_eCS|JP_AllergyIntorellance_CLINS_eCS)</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>{
+        "resourceType": "Observation",
+        "id": "InlineExample-Patient-standard",
+        "meta": {
+          "profile": [
+            "http://jpfhir.jp/fhir/clins/StructureDefinition/JP_Observation_LabResult_CLINS_eCS"
+          ]
+        }, 
+&lt;以降省略&gt;</t>
+    <rPh sb="231" eb="233">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
+    <rPh sb="233" eb="235">
+      <t xml:space="preserve">ショウリャク </t>
+    </rPh>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>このBundleリソースが格納するリソースのprofileに準拠したリソース。検体検査結果、傷病、アレルギー・薬剤禁忌、処方のいずれか。ただし、処方は６情報送信においては送信対象となっていない。
+同一のBundleリソースに格納されるすべてのentryは、同一のリソース種別でなければならない。</t>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">カクノウ </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">ジュンキョ </t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t xml:space="preserve">ケンタイ </t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t xml:space="preserve">ケンサ </t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t xml:space="preserve">ケッカ </t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t xml:space="preserve">ショウビョウ </t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t xml:space="preserve">ヤクザイ </t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t xml:space="preserve">キンキ </t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t xml:space="preserve">ショホウ </t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t xml:space="preserve">ショホウ </t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t xml:space="preserve">ソウシン </t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t xml:space="preserve">ソウシン </t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t xml:space="preserve">タイショウ </t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t xml:space="preserve">ドウイツ </t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t xml:space="preserve">カクノウ </t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t xml:space="preserve">ドウイツ </t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t xml:space="preserve">シュベツ </t>
+    </rPh>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>エントリリスト内の各リソースを一意に識別するためのUUID。</t>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">カクコジン </t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t xml:space="preserve">サイショ </t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ヒツオユ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t xml:space="preserve">ヒッス ヒッス  </t>
+    </rPh>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>JP_Patient_CLINS_eCS profileに準拠したPatientリソース。最初のリソースentryはJP_Patient_CLINS_eCS profileに準拠したPatientリソースであることが必須。</t>
+    <rPh sb="40" eb="42">
+      <t xml:space="preserve">ジュンキョ </t>
+    </rPh>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>このBundleリソースが格納するリソースのprofileに準拠したリソース。検体検査結果、傷病、アレルギー・薬剤禁忌、処方のいずれか。ただし、処方は６情報送信においては送信対象となっていない。</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>エントリリスト内の各リソースを一意に識別するためのUUID。すでに送信済みのBundleリソースを削除するためにこのBundleリソースを送信する場合には、最初のentry(Patientリソース）だけを設定し、これ以降のリソースは不要である。</t>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">カクコジン </t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t xml:space="preserve">ソウシン </t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t xml:space="preserve">ズミ </t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t xml:space="preserve">ソウシン </t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t xml:space="preserve">バアイ </t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t xml:space="preserve">サイショ </t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t xml:space="preserve">セッテイ </t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t xml:space="preserve">フヨウ </t>
+    </rPh>
+    <phoneticPr fontId="26"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="60">
+  <fonts count="61">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -8612,6 +9023,15 @@
       <family val="1"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="48">
     <fill>
@@ -8884,7 +9304,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -9552,6 +9972,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -9693,7 +10137,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="397">
+  <cellXfs count="402">
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -10498,6 +10942,348 @@
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="43" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="32" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="32" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="33" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="19" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="15" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="14" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="23" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="21" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="42" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="48" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="25" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="25" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="49" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="32" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="32" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="32" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="43" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="33" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="27" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="27" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="27" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="28" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="19" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="29" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="30" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="30" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="30" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="32" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="32" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="27" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="27" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="19" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="30" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="17" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="18" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="11" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="33" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="23" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="28" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="42" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="27" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="50" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="19" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="43" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="48" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="43" borderId="28" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="41" borderId="19" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="44" borderId="19" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="19" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="24" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="15" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="41" borderId="30" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -10519,371 +11305,44 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="52" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="26" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="49" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="51" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="52" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="45" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="43" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="42" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="42" borderId="32" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="42" borderId="32" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="42" borderId="33" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="19" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="15" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="14" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="23" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="21" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="42" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="48" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="25" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="25" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="49" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="32" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="32" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="32" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="43" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="33" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="27" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="27" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="27" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="28" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="19" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="29" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="30" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="30" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="30" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="32" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="32" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="27" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="27" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="19" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="30" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="17" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="18" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="11" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="33" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="23" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="28" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="42" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="27" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="50" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="19" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="43" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="49" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="26" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="51" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="48" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="43" borderId="28" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="41" borderId="19" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="44" borderId="19" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="19" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="24" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="15" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="41" borderId="30" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
@@ -11247,7 +11706,7 @@
   <dimension ref="A1:L111"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="A7" sqref="A7:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -11262,17 +11721,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="46" customHeight="1" thickBot="1">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="382" t="s">
         <v>723</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="268"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
-      <c r="F1" s="268"/>
-      <c r="G1" s="268"/>
-      <c r="H1" s="268"/>
-      <c r="I1" s="268"/>
+      <c r="B1" s="382"/>
+      <c r="C1" s="382"/>
+      <c r="D1" s="382"/>
+      <c r="E1" s="382"/>
+      <c r="F1" s="382"/>
+      <c r="G1" s="382"/>
+      <c r="H1" s="382"/>
+      <c r="I1" s="382"/>
     </row>
     <row r="2" spans="1:12" ht="75">
       <c r="A2" s="1" t="s">
@@ -12451,7 +12910,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="195">
+    <row r="52" spans="1:9" ht="210">
       <c r="A52" s="5"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -13927,17 +14386,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="46" customHeight="1" thickBot="1">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="382" t="s">
         <v>723</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="268"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
-      <c r="F1" s="268"/>
-      <c r="G1" s="268"/>
-      <c r="H1" s="268"/>
-      <c r="I1" s="268"/>
+      <c r="B1" s="382"/>
+      <c r="C1" s="382"/>
+      <c r="D1" s="382"/>
+      <c r="E1" s="382"/>
+      <c r="F1" s="382"/>
+      <c r="G1" s="382"/>
+      <c r="H1" s="382"/>
+      <c r="I1" s="382"/>
     </row>
     <row r="2" spans="1:12" ht="75">
       <c r="A2" s="1" t="s">
@@ -15170,7 +15629,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="195">
+    <row r="54" spans="1:18" ht="210">
       <c r="A54" s="5"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -15908,22 +16367,22 @@
       <c r="I85" s="30"/>
     </row>
     <row r="86" spans="1:9" ht="28">
-      <c r="A86" s="273"/>
-      <c r="B86" s="269" t="s">
+      <c r="A86" s="387"/>
+      <c r="B86" s="383" t="s">
         <v>305</v>
       </c>
-      <c r="C86" s="269"/>
-      <c r="D86" s="269"/>
-      <c r="E86" s="269" t="s">
+      <c r="C86" s="383"/>
+      <c r="D86" s="383"/>
+      <c r="E86" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="F86" s="269" t="s">
+      <c r="F86" s="383" t="s">
         <v>47</v>
       </c>
-      <c r="G86" s="269" t="s">
+      <c r="G86" s="383" t="s">
         <v>306</v>
       </c>
-      <c r="H86" s="270" t="s">
+      <c r="H86" s="384" t="s">
         <v>257</v>
       </c>
       <c r="I86" s="30" t="s">
@@ -15931,27 +16390,27 @@
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="273"/>
-      <c r="B87" s="269"/>
-      <c r="C87" s="269"/>
-      <c r="D87" s="269"/>
-      <c r="E87" s="269"/>
-      <c r="F87" s="269"/>
-      <c r="G87" s="269"/>
-      <c r="H87" s="271"/>
+      <c r="A87" s="387"/>
+      <c r="B87" s="383"/>
+      <c r="C87" s="383"/>
+      <c r="D87" s="383"/>
+      <c r="E87" s="383"/>
+      <c r="F87" s="383"/>
+      <c r="G87" s="383"/>
+      <c r="H87" s="385"/>
       <c r="I87" s="30" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="273"/>
-      <c r="B88" s="269"/>
-      <c r="C88" s="269"/>
-      <c r="D88" s="269"/>
-      <c r="E88" s="269"/>
-      <c r="F88" s="269"/>
-      <c r="G88" s="269"/>
-      <c r="H88" s="272"/>
+      <c r="A88" s="387"/>
+      <c r="B88" s="383"/>
+      <c r="C88" s="383"/>
+      <c r="D88" s="383"/>
+      <c r="E88" s="383"/>
+      <c r="F88" s="383"/>
+      <c r="G88" s="383"/>
+      <c r="H88" s="386"/>
       <c r="I88" s="30" t="s">
         <v>248</v>
       </c>
@@ -16174,18 +16633,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" customFormat="1" ht="46" customHeight="1" thickBot="1">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="382" t="s">
         <v>723</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="268"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
-      <c r="F1" s="268"/>
-      <c r="G1" s="268"/>
-      <c r="H1" s="268"/>
-      <c r="I1" s="268"/>
-      <c r="J1" s="274"/>
+      <c r="B1" s="382"/>
+      <c r="C1" s="382"/>
+      <c r="D1" s="382"/>
+      <c r="E1" s="382"/>
+      <c r="F1" s="382"/>
+      <c r="G1" s="382"/>
+      <c r="H1" s="382"/>
+      <c r="I1" s="382"/>
+      <c r="J1" s="388"/>
     </row>
     <row r="2" spans="1:10" ht="76" thickBot="1">
       <c r="A2" s="106" t="s">
@@ -17313,7 +17772,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="48" spans="1:10" customFormat="1" ht="195">
+    <row r="48" spans="1:10" customFormat="1" ht="210">
       <c r="A48" s="5"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -18304,126 +18763,126 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F072C65F-1439-C74F-A77A-07DDE1C12202}">
   <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="141" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="141" workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="277" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="277" customWidth="1"/>
-    <col min="3" max="4" width="7.85546875" style="277" customWidth="1"/>
-    <col min="5" max="5" width="5" style="277" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="277" customWidth="1"/>
-    <col min="7" max="7" width="38.42578125" style="277" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" style="277" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" style="277" customWidth="1"/>
-    <col min="10" max="16384" width="10.7109375" style="277"/>
+    <col min="1" max="1" width="11.28515625" style="268" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="268" customWidth="1"/>
+    <col min="3" max="4" width="7.85546875" style="268" customWidth="1"/>
+    <col min="5" max="5" width="5" style="268" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="268" customWidth="1"/>
+    <col min="7" max="7" width="38.42578125" style="268" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" style="268" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" style="268" customWidth="1"/>
+    <col min="10" max="16384" width="10.7109375" style="268"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1">
-      <c r="A1" s="276" t="s">
+      <c r="A1" s="389" t="s">
         <v>723</v>
       </c>
-      <c r="B1" s="276"/>
-      <c r="C1" s="276"/>
-      <c r="D1" s="276"/>
-      <c r="E1" s="276"/>
-      <c r="F1" s="276"/>
-      <c r="G1" s="276"/>
-      <c r="H1" s="276"/>
-      <c r="I1" s="276"/>
+      <c r="B1" s="389"/>
+      <c r="C1" s="389"/>
+      <c r="D1" s="389"/>
+      <c r="E1" s="389"/>
+      <c r="F1" s="389"/>
+      <c r="G1" s="389"/>
+      <c r="H1" s="389"/>
+      <c r="I1" s="389"/>
     </row>
     <row r="2" spans="1:9" ht="76" thickBot="1">
-      <c r="A2" s="278" t="s">
+      <c r="A2" s="269" t="s">
         <v>566</v>
       </c>
-      <c r="B2" s="279" t="s">
+      <c r="B2" s="270" t="s">
         <v>567</v>
       </c>
-      <c r="C2" s="279" t="s">
+      <c r="C2" s="270" t="s">
         <v>568</v>
       </c>
-      <c r="D2" s="279" t="s">
+      <c r="D2" s="270" t="s">
         <v>569</v>
       </c>
-      <c r="E2" s="280" t="s">
+      <c r="E2" s="271" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="279" t="s">
+      <c r="F2" s="270" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="279" t="s">
+      <c r="G2" s="270" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="190" t="s">
         <v>402</v>
       </c>
-      <c r="I2" s="281" t="s">
+      <c r="I2" s="272" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="21" thickBot="1">
-      <c r="A3" s="282" t="s">
+      <c r="A3" s="273" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="283"/>
-      <c r="C3" s="283"/>
-      <c r="D3" s="283"/>
+      <c r="B3" s="274"/>
+      <c r="C3" s="274"/>
+      <c r="D3" s="274"/>
       <c r="E3" s="208" t="s">
         <v>324</v>
       </c>
-      <c r="F3" s="283"/>
-      <c r="G3" s="284" t="s">
+      <c r="F3" s="274"/>
+      <c r="G3" s="275" t="s">
         <v>685</v>
       </c>
-      <c r="H3" s="284"/>
-      <c r="I3" s="285" t="s">
+      <c r="H3" s="275"/>
+      <c r="I3" s="276" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="282" t="s">
+      <c r="A4" s="273" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="283"/>
-      <c r="C4" s="283"/>
-      <c r="D4" s="283"/>
+      <c r="B4" s="274"/>
+      <c r="C4" s="274"/>
+      <c r="D4" s="274"/>
       <c r="E4" s="209" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="283" t="s">
+      <c r="F4" s="274" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="283"/>
-      <c r="H4" s="283"/>
-      <c r="I4" s="285"/>
+      <c r="G4" s="274"/>
+      <c r="H4" s="274"/>
+      <c r="I4" s="276"/>
     </row>
     <row r="5" spans="1:9" ht="270">
-      <c r="A5" s="282"/>
-      <c r="B5" s="283" t="s">
+      <c r="A5" s="273"/>
+      <c r="B5" s="274" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="283"/>
-      <c r="D5" s="283"/>
+      <c r="C5" s="274"/>
+      <c r="D5" s="274"/>
       <c r="E5" s="210" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="283" t="s">
+      <c r="F5" s="274" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="37" t="s">
         <v>318</v>
       </c>
-      <c r="H5" s="286" t="s">
+      <c r="H5" s="277" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="287" t="s">
+      <c r="I5" s="278" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="120">
-      <c r="A6" s="288" t="s">
+      <c r="A6" s="279" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="37" t="s">
@@ -18431,99 +18890,99 @@
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
-      <c r="E6" s="289" t="s">
+      <c r="E6" s="280" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="290" t="s">
+      <c r="G6" s="281" t="s">
         <v>757</v>
       </c>
       <c r="H6" s="37" t="s">
         <v>722</v>
       </c>
-      <c r="I6" s="291" t="s">
+      <c r="I6" s="282" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="292" t="s">
+      <c r="A7" s="283" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="293" t="s">
+      <c r="B7" s="284" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="293"/>
-      <c r="D7" s="293"/>
-      <c r="E7" s="294" t="s">
+      <c r="C7" s="284"/>
+      <c r="D7" s="284"/>
+      <c r="E7" s="285" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="286" t="s">
+      <c r="F7" s="277" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="286" t="s">
+      <c r="G7" s="277" t="s">
         <v>211</v>
       </c>
-      <c r="H7" s="286"/>
-      <c r="I7" s="287"/>
+      <c r="H7" s="277"/>
+      <c r="I7" s="278"/>
     </row>
     <row r="8" spans="1:9" ht="45">
-      <c r="A8" s="292" t="s">
+      <c r="A8" s="283" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="293" t="s">
+      <c r="B8" s="284" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="293" t="s">
+      <c r="C8" s="284" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="293"/>
-      <c r="E8" s="294" t="s">
+      <c r="D8" s="284"/>
+      <c r="E8" s="285" t="s">
         <v>225</v>
       </c>
-      <c r="F8" s="286" t="s">
+      <c r="F8" s="277" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="295" t="s">
+      <c r="G8" s="286" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="286" t="s">
+      <c r="H8" s="277" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="287" t="s">
+      <c r="I8" s="278" t="s">
         <v>869</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30">
-      <c r="A9" s="296" t="s">
+      <c r="A9" s="287" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="297" t="s">
+      <c r="B9" s="288" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="297" t="s">
+      <c r="C9" s="288" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="297"/>
-      <c r="E9" s="298" t="s">
+      <c r="D9" s="288"/>
+      <c r="E9" s="289" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="299" t="s">
+      <c r="F9" s="290" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="299" t="s">
+      <c r="G9" s="290" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="299" t="s">
+      <c r="H9" s="290" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="300" t="s">
+      <c r="I9" s="291" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="90">
-      <c r="A10" s="301" t="s">
+      <c r="A10" s="292" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="132"/>
@@ -18539,10 +18998,10 @@
         <v>609</v>
       </c>
       <c r="H10" s="132"/>
-      <c r="I10" s="302"/>
+      <c r="I10" s="293"/>
     </row>
     <row r="11" spans="1:9" ht="60">
-      <c r="A11" s="288" t="s">
+      <c r="A11" s="279" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="37"/>
@@ -18558,10 +19017,10 @@
         <v>870</v>
       </c>
       <c r="H11" s="37"/>
-      <c r="I11" s="303"/>
+      <c r="I11" s="294"/>
     </row>
     <row r="12" spans="1:9" ht="60">
-      <c r="A12" s="288" t="s">
+      <c r="A12" s="279" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="37"/>
@@ -18577,58 +19036,58 @@
         <v>611</v>
       </c>
       <c r="H12" s="37"/>
-      <c r="I12" s="303"/>
+      <c r="I12" s="294"/>
     </row>
     <row r="13" spans="1:9" ht="31" thickBot="1">
-      <c r="A13" s="304" t="s">
+      <c r="A13" s="295" t="s">
         <v>405</v>
       </c>
-      <c r="B13" s="305"/>
-      <c r="C13" s="305"/>
-      <c r="D13" s="305"/>
-      <c r="E13" s="306" t="s">
+      <c r="B13" s="296"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="297" t="s">
         <v>232</v>
       </c>
-      <c r="F13" s="307"/>
-      <c r="G13" s="308" t="s">
+      <c r="F13" s="298"/>
+      <c r="G13" s="299" t="s">
         <v>726</v>
       </c>
-      <c r="H13" s="309"/>
-      <c r="I13" s="310"/>
+      <c r="H13" s="300"/>
+      <c r="I13" s="301"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="311" t="s">
+      <c r="A14" s="302" t="s">
         <v>403</v>
       </c>
-      <c r="B14" s="312"/>
-      <c r="C14" s="312"/>
-      <c r="D14" s="312"/>
-      <c r="E14" s="313" t="s">
+      <c r="B14" s="303"/>
+      <c r="C14" s="303"/>
+      <c r="D14" s="303"/>
+      <c r="E14" s="304" t="s">
         <v>218</v>
       </c>
-      <c r="F14" s="314" t="s">
+      <c r="F14" s="305" t="s">
         <v>280</v>
       </c>
-      <c r="G14" s="315"/>
-      <c r="H14" s="316"/>
-      <c r="I14" s="317"/>
+      <c r="G14" s="306"/>
+      <c r="H14" s="307"/>
+      <c r="I14" s="308"/>
     </row>
     <row r="15" spans="1:9" ht="105">
-      <c r="A15" s="318" t="s">
+      <c r="A15" s="309" t="s">
         <v>404</v>
       </c>
-      <c r="B15" s="319" t="s">
+      <c r="B15" s="310" t="s">
         <v>401</v>
       </c>
-      <c r="C15" s="319"/>
-      <c r="D15" s="319"/>
-      <c r="E15" s="320" t="s">
+      <c r="C15" s="310"/>
+      <c r="D15" s="310"/>
+      <c r="E15" s="311" t="s">
         <v>225</v>
       </c>
-      <c r="F15" s="321" t="s">
+      <c r="F15" s="312" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="322" t="s">
+      <c r="G15" s="313" t="s">
         <v>730</v>
       </c>
       <c r="H15" s="202" t="s">
@@ -18639,44 +19098,44 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="323" t="s">
+      <c r="A16" s="314" t="s">
         <v>404</v>
       </c>
-      <c r="B16" s="324" t="s">
+      <c r="B16" s="315" t="s">
         <v>621</v>
       </c>
-      <c r="C16" s="324"/>
-      <c r="D16" s="324"/>
-      <c r="E16" s="325" t="s">
+      <c r="C16" s="315"/>
+      <c r="D16" s="315"/>
+      <c r="E16" s="316" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="326" t="s">
+      <c r="F16" s="317" t="s">
         <v>622</v>
       </c>
-      <c r="G16" s="327" t="s">
+      <c r="G16" s="318" t="s">
         <v>625</v>
       </c>
-      <c r="H16" s="328"/>
-      <c r="I16" s="329"/>
+      <c r="H16" s="319"/>
+      <c r="I16" s="320"/>
     </row>
     <row r="17" spans="1:9" ht="63">
-      <c r="A17" s="323" t="s">
+      <c r="A17" s="314" t="s">
         <v>404</v>
       </c>
-      <c r="B17" s="324" t="s">
+      <c r="B17" s="315" t="s">
         <v>621</v>
       </c>
-      <c r="C17" s="324" t="s">
+      <c r="C17" s="315" t="s">
         <v>508</v>
       </c>
-      <c r="D17" s="324"/>
-      <c r="E17" s="325" t="s">
+      <c r="D17" s="315"/>
+      <c r="E17" s="316" t="s">
         <v>225</v>
       </c>
-      <c r="F17" s="321" t="s">
+      <c r="F17" s="312" t="s">
         <v>556</v>
       </c>
-      <c r="G17" s="327" t="s">
+      <c r="G17" s="318" t="s">
         <v>624</v>
       </c>
       <c r="H17" s="202" t="s">
@@ -18687,67 +19146,67 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="21" thickBot="1">
-      <c r="A18" s="330" t="s">
+      <c r="A18" s="321" t="s">
         <v>404</v>
       </c>
-      <c r="B18" s="331" t="s">
+      <c r="B18" s="322" t="s">
         <v>621</v>
       </c>
-      <c r="C18" s="331" t="s">
+      <c r="C18" s="322" t="s">
         <v>623</v>
       </c>
-      <c r="D18" s="331"/>
-      <c r="E18" s="332" t="s">
+      <c r="D18" s="322"/>
+      <c r="E18" s="323" t="s">
         <v>225</v>
       </c>
-      <c r="F18" s="333" t="s">
+      <c r="F18" s="324" t="s">
         <v>442</v>
       </c>
-      <c r="G18" s="334" t="s">
+      <c r="G18" s="325" t="s">
         <v>628</v>
       </c>
-      <c r="H18" s="335" t="s">
+      <c r="H18" s="326" t="s">
         <v>616</v>
       </c>
-      <c r="I18" s="336" t="s">
+      <c r="I18" s="327" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="45">
-      <c r="A19" s="311" t="s">
+      <c r="A19" s="302" t="s">
         <v>403</v>
       </c>
-      <c r="B19" s="312"/>
-      <c r="C19" s="312"/>
-      <c r="D19" s="312"/>
-      <c r="E19" s="337" t="s">
+      <c r="B19" s="303"/>
+      <c r="C19" s="303"/>
+      <c r="D19" s="303"/>
+      <c r="E19" s="328" t="s">
         <v>218</v>
       </c>
-      <c r="F19" s="314" t="s">
+      <c r="F19" s="305" t="s">
         <v>280</v>
       </c>
-      <c r="G19" s="338" t="s">
+      <c r="G19" s="329" t="s">
         <v>731</v>
       </c>
-      <c r="H19" s="316"/>
-      <c r="I19" s="339"/>
+      <c r="H19" s="307"/>
+      <c r="I19" s="330"/>
     </row>
     <row r="20" spans="1:9" ht="54">
-      <c r="A20" s="318" t="s">
+      <c r="A20" s="309" t="s">
         <v>404</v>
       </c>
-      <c r="B20" s="319" t="s">
+      <c r="B20" s="310" t="s">
         <v>401</v>
       </c>
-      <c r="C20" s="319"/>
-      <c r="D20" s="319"/>
-      <c r="E20" s="340" t="s">
+      <c r="C20" s="310"/>
+      <c r="D20" s="310"/>
+      <c r="E20" s="331" t="s">
         <v>225</v>
       </c>
-      <c r="F20" s="321" t="s">
+      <c r="F20" s="312" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="341" t="s">
+      <c r="G20" s="332" t="s">
         <v>631</v>
       </c>
       <c r="H20" s="202" t="s">
@@ -18758,66 +19217,66 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="31" thickBot="1">
-      <c r="A21" s="323" t="s">
+      <c r="A21" s="314" t="s">
         <v>404</v>
       </c>
-      <c r="B21" s="324" t="s">
+      <c r="B21" s="315" t="s">
         <v>498</v>
       </c>
-      <c r="C21" s="324"/>
-      <c r="D21" s="324"/>
-      <c r="E21" s="342" t="s">
+      <c r="C21" s="315"/>
+      <c r="D21" s="315"/>
+      <c r="E21" s="333" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="326" t="s">
+      <c r="F21" s="317" t="s">
         <v>233</v>
       </c>
       <c r="G21" s="53" t="s">
         <v>632</v>
       </c>
-      <c r="H21" s="328"/>
-      <c r="I21" s="285"/>
+      <c r="H21" s="319"/>
+      <c r="I21" s="276"/>
     </row>
     <row r="22" spans="1:9" ht="27" thickBot="1">
-      <c r="A22" s="323" t="s">
+      <c r="A22" s="314" t="s">
         <v>404</v>
       </c>
-      <c r="B22" s="324" t="s">
+      <c r="B22" s="315" t="s">
         <v>498</v>
       </c>
-      <c r="C22" s="324" t="s">
+      <c r="C22" s="315" t="s">
         <v>494</v>
       </c>
-      <c r="D22" s="324"/>
-      <c r="E22" s="342" t="s">
+      <c r="D22" s="315"/>
+      <c r="E22" s="333" t="s">
         <v>281</v>
       </c>
-      <c r="F22" s="326" t="s">
+      <c r="F22" s="317" t="s">
         <v>499</v>
       </c>
       <c r="G22" s="53" t="s">
         <v>635</v>
       </c>
       <c r="H22" s="67"/>
-      <c r="I22" s="285"/>
+      <c r="I22" s="276"/>
     </row>
     <row r="23" spans="1:9" ht="42">
-      <c r="A23" s="323" t="s">
+      <c r="A23" s="314" t="s">
         <v>404</v>
       </c>
-      <c r="B23" s="324" t="s">
+      <c r="B23" s="315" t="s">
         <v>498</v>
       </c>
-      <c r="C23" s="324" t="s">
+      <c r="C23" s="315" t="s">
         <v>494</v>
       </c>
-      <c r="D23" s="324" t="s">
+      <c r="D23" s="315" t="s">
         <v>508</v>
       </c>
-      <c r="E23" s="342" t="s">
+      <c r="E23" s="333" t="s">
         <v>218</v>
       </c>
-      <c r="F23" s="321" t="s">
+      <c r="F23" s="312" t="s">
         <v>25</v>
       </c>
       <c r="G23" s="53" t="s">
@@ -18826,201 +19285,201 @@
       <c r="H23" s="67" t="s">
         <v>406</v>
       </c>
-      <c r="I23" s="285" t="s">
+      <c r="I23" s="276" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="26">
-      <c r="A24" s="323" t="s">
+      <c r="A24" s="314" t="s">
         <v>404</v>
       </c>
-      <c r="B24" s="324" t="s">
+      <c r="B24" s="315" t="s">
         <v>498</v>
       </c>
-      <c r="C24" s="324" t="s">
+      <c r="C24" s="315" t="s">
         <v>494</v>
       </c>
-      <c r="D24" s="324" t="s">
+      <c r="D24" s="315" t="s">
         <v>414</v>
       </c>
-      <c r="E24" s="342" t="s">
+      <c r="E24" s="333" t="s">
         <v>218</v>
       </c>
-      <c r="F24" s="326" t="s">
+      <c r="F24" s="317" t="s">
         <v>442</v>
       </c>
       <c r="G24" s="53" t="s">
         <v>615</v>
       </c>
-      <c r="H24" s="328" t="s">
+      <c r="H24" s="319" t="s">
         <v>616</v>
       </c>
-      <c r="I24" s="285" t="s">
+      <c r="I24" s="276" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="26">
-      <c r="A25" s="323" t="s">
+      <c r="A25" s="314" t="s">
         <v>404</v>
       </c>
-      <c r="B25" s="324" t="s">
+      <c r="B25" s="315" t="s">
         <v>498</v>
       </c>
-      <c r="C25" s="324" t="s">
+      <c r="C25" s="315" t="s">
         <v>494</v>
       </c>
-      <c r="D25" s="324" t="s">
+      <c r="D25" s="315" t="s">
         <v>261</v>
       </c>
-      <c r="E25" s="342" t="s">
+      <c r="E25" s="333" t="s">
         <v>218</v>
       </c>
-      <c r="F25" s="326" t="s">
+      <c r="F25" s="317" t="s">
         <v>442</v>
       </c>
       <c r="G25" s="53" t="s">
         <v>613</v>
       </c>
-      <c r="H25" s="328"/>
-      <c r="I25" s="285" t="s">
+      <c r="H25" s="319"/>
+      <c r="I25" s="276" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="31" thickBot="1">
-      <c r="A26" s="330" t="s">
+      <c r="A26" s="321" t="s">
         <v>404</v>
       </c>
-      <c r="B26" s="331" t="s">
+      <c r="B26" s="322" t="s">
         <v>498</v>
       </c>
-      <c r="C26" s="331" t="s">
+      <c r="C26" s="322" t="s">
         <v>421</v>
       </c>
-      <c r="D26" s="331"/>
-      <c r="E26" s="343" t="s">
+      <c r="D26" s="322"/>
+      <c r="E26" s="334" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="333" t="s">
+      <c r="F26" s="324" t="s">
         <v>442</v>
       </c>
       <c r="G26" s="57" t="s">
         <v>620</v>
       </c>
-      <c r="H26" s="335" t="s">
+      <c r="H26" s="326" t="s">
         <v>616</v>
       </c>
-      <c r="I26" s="344" t="s">
+      <c r="I26" s="335" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="196" thickBot="1">
-      <c r="A27" s="345" t="s">
+      <c r="A27" s="336" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="346"/>
-      <c r="C27" s="346"/>
-      <c r="D27" s="346"/>
-      <c r="E27" s="347" t="s">
+      <c r="B27" s="337"/>
+      <c r="C27" s="337"/>
+      <c r="D27" s="337"/>
+      <c r="E27" s="338" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="348" t="s">
+      <c r="F27" s="339" t="s">
         <v>39</v>
       </c>
-      <c r="G27" s="290" t="s">
+      <c r="G27" s="281" t="s">
         <v>724</v>
       </c>
-      <c r="H27" s="348"/>
-      <c r="I27" s="349"/>
+      <c r="H27" s="339"/>
+      <c r="I27" s="340"/>
     </row>
     <row r="28" spans="1:9" ht="60">
-      <c r="A28" s="350" t="s">
+      <c r="A28" s="341" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="351" t="s">
+      <c r="B28" s="342" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="351"/>
-      <c r="D28" s="351"/>
-      <c r="E28" s="352" t="s">
+      <c r="C28" s="342"/>
+      <c r="D28" s="342"/>
+      <c r="E28" s="343" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="353" t="s">
+      <c r="F28" s="344" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="354" t="s">
+      <c r="G28" s="345" t="s">
         <v>725</v>
       </c>
-      <c r="H28" s="353" t="s">
+      <c r="H28" s="344" t="s">
         <v>11</v>
       </c>
-      <c r="I28" s="355" t="s">
+      <c r="I28" s="346" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="30">
-      <c r="A29" s="296" t="s">
+      <c r="A29" s="287" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="297" t="s">
+      <c r="B29" s="288" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="297"/>
-      <c r="D29" s="297"/>
-      <c r="E29" s="356" t="s">
+      <c r="C29" s="288"/>
+      <c r="D29" s="288"/>
+      <c r="E29" s="347" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="299" t="s">
+      <c r="F29" s="290" t="s">
         <v>43</v>
       </c>
-      <c r="G29" s="299" t="s">
+      <c r="G29" s="290" t="s">
         <v>325</v>
       </c>
-      <c r="H29" s="299" t="s">
+      <c r="H29" s="290" t="s">
         <v>17</v>
       </c>
-      <c r="I29" s="300" t="s">
+      <c r="I29" s="291" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="135">
-      <c r="A30" s="357" t="s">
+      <c r="A30" s="348" t="s">
         <v>484</v>
       </c>
-      <c r="B30" s="358"/>
-      <c r="C30" s="358"/>
-      <c r="D30" s="358"/>
-      <c r="E30" s="359" t="s">
+      <c r="B30" s="349"/>
+      <c r="C30" s="349"/>
+      <c r="D30" s="349"/>
+      <c r="E30" s="350" t="s">
         <v>218</v>
       </c>
-      <c r="F30" s="359" t="s">
+      <c r="F30" s="350" t="s">
         <v>485</v>
       </c>
-      <c r="G30" s="359" t="s">
+      <c r="G30" s="350" t="s">
         <v>692</v>
       </c>
-      <c r="H30" s="359"/>
-      <c r="I30" s="360"/>
+      <c r="H30" s="350"/>
+      <c r="I30" s="351"/>
     </row>
     <row r="31" spans="1:9" ht="136" thickBot="1">
-      <c r="A31" s="361" t="s">
+      <c r="A31" s="352" t="s">
         <v>266</v>
       </c>
-      <c r="B31" s="362"/>
-      <c r="C31" s="362"/>
-      <c r="D31" s="362"/>
-      <c r="E31" s="363" t="s">
+      <c r="B31" s="353"/>
+      <c r="C31" s="353"/>
+      <c r="D31" s="353"/>
+      <c r="E31" s="354" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="362" t="s">
+      <c r="F31" s="353" t="s">
         <v>29</v>
       </c>
       <c r="G31" s="202" t="s">
         <v>636</v>
       </c>
-      <c r="H31" s="299" t="s">
+      <c r="H31" s="290" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="364" t="s">
+      <c r="I31" s="355" t="s">
         <v>600</v>
       </c>
     </row>
@@ -19061,7 +19520,7 @@
       <c r="G33" s="37" t="s">
         <v>640</v>
       </c>
-      <c r="H33" s="286" t="s">
+      <c r="H33" s="277" t="s">
         <v>406</v>
       </c>
       <c r="I33" s="215" t="s">
@@ -19086,7 +19545,7 @@
       <c r="G34" s="37" t="s">
         <v>641</v>
       </c>
-      <c r="H34" s="286" t="s">
+      <c r="H34" s="277" t="s">
         <v>406</v>
       </c>
       <c r="I34" s="159" t="s">
@@ -19111,7 +19570,7 @@
       <c r="G35" s="144" t="s">
         <v>643</v>
       </c>
-      <c r="H35" s="299" t="s">
+      <c r="H35" s="290" t="s">
         <v>406</v>
       </c>
       <c r="I35" s="157" t="s">
@@ -19119,152 +19578,152 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="30">
-      <c r="A36" s="282" t="s">
+      <c r="A36" s="273" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="283"/>
-      <c r="C36" s="283"/>
-      <c r="D36" s="283"/>
-      <c r="E36" s="365" t="s">
+      <c r="B36" s="274"/>
+      <c r="C36" s="274"/>
+      <c r="D36" s="274"/>
+      <c r="E36" s="356" t="s">
         <v>10</v>
       </c>
-      <c r="F36" s="283" t="s">
+      <c r="F36" s="274" t="s">
         <v>47</v>
       </c>
       <c r="G36" s="67" t="s">
         <v>645</v>
       </c>
       <c r="H36" s="67"/>
-      <c r="I36" s="339"/>
+      <c r="I36" s="330"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="282" t="s">
+      <c r="A37" s="273" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="283" t="s">
+      <c r="B37" s="274" t="s">
         <v>409</v>
       </c>
-      <c r="C37" s="283"/>
-      <c r="D37" s="283"/>
-      <c r="E37" s="365" t="s">
+      <c r="C37" s="274"/>
+      <c r="D37" s="274"/>
+      <c r="E37" s="356" t="s">
         <v>216</v>
       </c>
-      <c r="F37" s="366"/>
-      <c r="G37" s="367" t="s">
+      <c r="F37" s="357"/>
+      <c r="G37" s="390" t="s">
         <v>646</v>
       </c>
-      <c r="H37" s="368"/>
-      <c r="I37" s="369"/>
+      <c r="H37" s="392"/>
+      <c r="I37" s="394"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="282" t="s">
+      <c r="A38" s="273" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="283" t="s">
+      <c r="B38" s="274" t="s">
         <v>410</v>
       </c>
-      <c r="C38" s="283"/>
-      <c r="D38" s="283"/>
-      <c r="E38" s="365" t="s">
+      <c r="C38" s="274"/>
+      <c r="D38" s="274"/>
+      <c r="E38" s="356" t="s">
         <v>225</v>
       </c>
-      <c r="F38" s="283" t="s">
+      <c r="F38" s="274" t="s">
         <v>499</v>
       </c>
-      <c r="G38" s="370"/>
-      <c r="H38" s="371"/>
-      <c r="I38" s="372"/>
+      <c r="G38" s="391"/>
+      <c r="H38" s="393"/>
+      <c r="I38" s="395"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="282" t="s">
+      <c r="A39" s="273" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="283" t="s">
+      <c r="B39" s="274" t="s">
         <v>411</v>
       </c>
-      <c r="C39" s="283" t="s">
+      <c r="C39" s="274" t="s">
         <v>508</v>
       </c>
-      <c r="D39" s="283"/>
-      <c r="E39" s="365" t="s">
+      <c r="D39" s="274"/>
+      <c r="E39" s="356" t="s">
         <v>225</v>
       </c>
-      <c r="F39" s="283" t="s">
+      <c r="F39" s="274" t="s">
         <v>556</v>
       </c>
-      <c r="G39" s="370"/>
-      <c r="H39" s="371"/>
-      <c r="I39" s="372"/>
+      <c r="G39" s="391"/>
+      <c r="H39" s="393"/>
+      <c r="I39" s="395"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="282" t="s">
+      <c r="A40" s="273" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="283" t="s">
+      <c r="B40" s="274" t="s">
         <v>411</v>
       </c>
-      <c r="C40" s="283" t="s">
+      <c r="C40" s="274" t="s">
         <v>414</v>
       </c>
-      <c r="D40" s="283"/>
-      <c r="E40" s="365" t="s">
+      <c r="D40" s="274"/>
+      <c r="E40" s="356" t="s">
         <v>225</v>
       </c>
-      <c r="F40" s="283" t="s">
+      <c r="F40" s="274" t="s">
         <v>442</v>
       </c>
-      <c r="G40" s="370"/>
-      <c r="H40" s="371"/>
-      <c r="I40" s="372"/>
+      <c r="G40" s="391"/>
+      <c r="H40" s="393"/>
+      <c r="I40" s="395"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="282" t="s">
+      <c r="A41" s="273" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="283" t="s">
+      <c r="B41" s="274" t="s">
         <v>411</v>
       </c>
-      <c r="C41" s="283" t="s">
+      <c r="C41" s="274" t="s">
         <v>261</v>
       </c>
-      <c r="D41" s="283"/>
-      <c r="E41" s="365" t="s">
+      <c r="D41" s="274"/>
+      <c r="E41" s="356" t="s">
         <v>225</v>
       </c>
-      <c r="F41" s="283" t="s">
+      <c r="F41" s="274" t="s">
         <v>442</v>
       </c>
-      <c r="G41" s="370"/>
-      <c r="H41" s="371"/>
-      <c r="I41" s="372"/>
+      <c r="G41" s="391"/>
+      <c r="H41" s="393"/>
+      <c r="I41" s="395"/>
     </row>
     <row r="42" spans="1:9" ht="21" thickBot="1">
-      <c r="A42" s="373" t="s">
+      <c r="A42" s="358" t="s">
         <v>29</v>
       </c>
-      <c r="B42" s="374" t="s">
+      <c r="B42" s="359" t="s">
         <v>421</v>
       </c>
-      <c r="C42" s="374"/>
-      <c r="D42" s="374"/>
-      <c r="E42" s="375" t="s">
+      <c r="C42" s="359"/>
+      <c r="D42" s="359"/>
+      <c r="E42" s="360" t="s">
         <v>647</v>
       </c>
-      <c r="F42" s="374" t="s">
+      <c r="F42" s="359" t="s">
         <v>442</v>
       </c>
-      <c r="G42" s="370"/>
-      <c r="H42" s="371"/>
-      <c r="I42" s="372"/>
+      <c r="G42" s="391"/>
+      <c r="H42" s="393"/>
+      <c r="I42" s="395"/>
     </row>
     <row r="43" spans="1:9" ht="60">
-      <c r="A43" s="376" t="s">
+      <c r="A43" s="361" t="s">
         <v>236</v>
       </c>
       <c r="B43" s="116"/>
       <c r="C43" s="116"/>
       <c r="D43" s="116"/>
-      <c r="E43" s="377" t="s">
+      <c r="E43" s="362" t="s">
         <v>10</v>
       </c>
       <c r="F43" s="116" t="s">
@@ -19276,35 +19735,35 @@
       <c r="H43" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="I43" s="378" t="s">
+      <c r="I43" s="363" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="195">
-      <c r="A44" s="288"/>
+    <row r="44" spans="1:9" ht="210">
+      <c r="A44" s="279"/>
       <c r="B44" s="37"/>
       <c r="C44" s="37"/>
       <c r="D44" s="37"/>
       <c r="E44" s="38"/>
       <c r="F44" s="37"/>
-      <c r="G44" s="290" t="s">
+      <c r="G44" s="281" t="s">
         <v>734</v>
       </c>
       <c r="H44" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="I44" s="291" t="s">
+      <c r="I44" s="282" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="90">
-      <c r="A45" s="288" t="s">
+      <c r="A45" s="279" t="s">
         <v>77</v>
       </c>
       <c r="B45" s="37"/>
       <c r="C45" s="37"/>
       <c r="D45" s="37"/>
-      <c r="E45" s="379" t="s">
+      <c r="E45" s="364" t="s">
         <v>46</v>
       </c>
       <c r="F45" s="37" t="s">
@@ -19316,12 +19775,12 @@
       <c r="H45" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="I45" s="303" t="s">
+      <c r="I45" s="294" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="165">
-      <c r="A46" s="288"/>
+      <c r="A46" s="279"/>
       <c r="B46" s="37"/>
       <c r="C46" s="37"/>
       <c r="D46" s="37"/>
@@ -19333,21 +19792,21 @@
       <c r="H46" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="I46" s="303" t="s">
+      <c r="I46" s="294" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="58">
-      <c r="A47" s="283" t="s">
+      <c r="A47" s="274" t="s">
         <v>711</v>
       </c>
-      <c r="B47" s="374"/>
-      <c r="C47" s="374"/>
-      <c r="D47" s="374"/>
-      <c r="E47" s="375" t="s">
+      <c r="B47" s="359"/>
+      <c r="C47" s="359"/>
+      <c r="D47" s="359"/>
+      <c r="E47" s="360" t="s">
         <v>225</v>
       </c>
-      <c r="F47" s="283" t="s">
+      <c r="F47" s="274" t="s">
         <v>651</v>
       </c>
       <c r="G47" s="53" t="s">
@@ -19356,21 +19815,21 @@
       <c r="H47" s="53" t="s">
         <v>649</v>
       </c>
-      <c r="I47" s="310" t="s">
+      <c r="I47" s="301" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="45">
-      <c r="A48" s="380" t="s">
+      <c r="A48" s="365" t="s">
         <v>693</v>
       </c>
-      <c r="B48" s="374"/>
-      <c r="C48" s="374"/>
-      <c r="D48" s="374"/>
-      <c r="E48" s="381" t="s">
+      <c r="B48" s="359"/>
+      <c r="C48" s="359"/>
+      <c r="D48" s="359"/>
+      <c r="E48" s="366" t="s">
         <v>218</v>
       </c>
-      <c r="F48" s="283" t="s">
+      <c r="F48" s="274" t="s">
         <v>694</v>
       </c>
       <c r="G48" s="53" t="s">
@@ -19379,57 +19838,57 @@
       <c r="H48" s="53" t="s">
         <v>649</v>
       </c>
-      <c r="I48" s="310" t="s">
+      <c r="I48" s="301" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="105">
-      <c r="A49" s="382" t="s">
+      <c r="A49" s="367" t="s">
         <v>655</v>
       </c>
-      <c r="B49" s="283"/>
-      <c r="C49" s="283"/>
-      <c r="D49" s="283"/>
-      <c r="E49" s="383" t="s">
+      <c r="B49" s="274"/>
+      <c r="C49" s="274"/>
+      <c r="D49" s="274"/>
+      <c r="E49" s="368" t="s">
         <v>218</v>
       </c>
-      <c r="F49" s="283"/>
+      <c r="F49" s="274"/>
       <c r="G49" s="53" t="s">
         <v>714</v>
       </c>
       <c r="H49" s="53"/>
-      <c r="I49" s="285"/>
+      <c r="I49" s="276"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="283" t="s">
+      <c r="A50" s="274" t="s">
         <v>697</v>
       </c>
-      <c r="B50" s="283"/>
-      <c r="C50" s="283"/>
-      <c r="D50" s="283"/>
-      <c r="E50" s="383" t="s">
+      <c r="B50" s="274"/>
+      <c r="C50" s="274"/>
+      <c r="D50" s="274"/>
+      <c r="E50" s="368" t="s">
         <v>46</v>
       </c>
-      <c r="F50" s="283" t="s">
+      <c r="F50" s="274" t="s">
         <v>373</v>
       </c>
       <c r="G50" s="53" t="s">
         <v>654</v>
       </c>
       <c r="H50" s="53"/>
-      <c r="I50" s="285"/>
+      <c r="I50" s="276"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="283"/>
-      <c r="B51" s="283" t="s">
+      <c r="A51" s="274"/>
+      <c r="B51" s="274" t="s">
         <v>623</v>
       </c>
-      <c r="C51" s="283"/>
-      <c r="D51" s="283"/>
-      <c r="E51" s="383">
+      <c r="C51" s="274"/>
+      <c r="D51" s="274"/>
+      <c r="E51" s="368">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F51" s="283" t="s">
+      <c r="F51" s="274" t="s">
         <v>657</v>
       </c>
       <c r="G51" s="53" t="s">
@@ -19438,21 +19897,21 @@
       <c r="H51" s="53" t="s">
         <v>616</v>
       </c>
-      <c r="I51" s="285">
+      <c r="I51" s="276">
         <v>193.04</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="60">
-      <c r="A52" s="283"/>
-      <c r="B52" s="283" t="s">
+      <c r="A52" s="274"/>
+      <c r="B52" s="274" t="s">
         <v>656</v>
       </c>
-      <c r="C52" s="283"/>
-      <c r="D52" s="283"/>
-      <c r="E52" s="383" t="s">
+      <c r="C52" s="274"/>
+      <c r="D52" s="274"/>
+      <c r="E52" s="368" t="s">
         <v>218</v>
       </c>
-      <c r="F52" s="283" t="s">
+      <c r="F52" s="274" t="s">
         <v>414</v>
       </c>
       <c r="G52" s="53" t="s">
@@ -19461,21 +19920,21 @@
       <c r="H52" s="53" t="s">
         <v>616</v>
       </c>
-      <c r="I52" s="285" t="s">
+      <c r="I52" s="276" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="283"/>
-      <c r="B53" s="283" t="s">
+      <c r="A53" s="274"/>
+      <c r="B53" s="274" t="s">
         <v>554</v>
       </c>
-      <c r="C53" s="283"/>
-      <c r="D53" s="283"/>
-      <c r="E53" s="383" t="s">
+      <c r="C53" s="274"/>
+      <c r="D53" s="274"/>
+      <c r="E53" s="368" t="s">
         <v>218</v>
       </c>
-      <c r="F53" s="283" t="s">
+      <c r="F53" s="274" t="s">
         <v>43</v>
       </c>
       <c r="G53" s="53" t="s">
@@ -19484,21 +19943,21 @@
       <c r="H53" s="53" t="s">
         <v>616</v>
       </c>
-      <c r="I53" s="285" t="s">
+      <c r="I53" s="276" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="30">
-      <c r="A54" s="283"/>
-      <c r="B54" s="283" t="s">
+      <c r="A54" s="274"/>
+      <c r="B54" s="274" t="s">
         <v>508</v>
       </c>
-      <c r="C54" s="283"/>
-      <c r="D54" s="283"/>
-      <c r="E54" s="383" t="s">
+      <c r="C54" s="274"/>
+      <c r="D54" s="274"/>
+      <c r="E54" s="368" t="s">
         <v>218</v>
       </c>
-      <c r="F54" s="283" t="s">
+      <c r="F54" s="274" t="s">
         <v>556</v>
       </c>
       <c r="G54" s="53" t="s">
@@ -19512,92 +19971,92 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="283"/>
-      <c r="B55" s="283" t="s">
+      <c r="A55" s="274"/>
+      <c r="B55" s="274" t="s">
         <v>414</v>
       </c>
-      <c r="C55" s="283"/>
-      <c r="D55" s="283"/>
-      <c r="E55" s="383" t="s">
+      <c r="C55" s="274"/>
+      <c r="D55" s="274"/>
+      <c r="E55" s="368" t="s">
         <v>218</v>
       </c>
-      <c r="F55" s="283" t="s">
+      <c r="F55" s="274" t="s">
         <v>414</v>
       </c>
       <c r="G55" s="53" t="s">
         <v>678</v>
       </c>
       <c r="H55" s="53"/>
-      <c r="I55" s="285"/>
+      <c r="I55" s="276"/>
     </row>
     <row r="56" spans="1:9" ht="60">
-      <c r="A56" s="283" t="s">
+      <c r="A56" s="274" t="s">
         <v>498</v>
       </c>
-      <c r="B56" s="283"/>
-      <c r="C56" s="283"/>
-      <c r="D56" s="283"/>
-      <c r="E56" s="383" t="s">
+      <c r="B56" s="274"/>
+      <c r="C56" s="274"/>
+      <c r="D56" s="274"/>
+      <c r="E56" s="368" t="s">
         <v>46</v>
       </c>
-      <c r="F56" s="283" t="s">
+      <c r="F56" s="274" t="s">
         <v>47</v>
       </c>
       <c r="G56" s="53" t="s">
         <v>684</v>
       </c>
       <c r="H56" s="53"/>
-      <c r="I56" s="285"/>
+      <c r="I56" s="276"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="283"/>
-      <c r="B57" s="283" t="s">
+      <c r="A57" s="274"/>
+      <c r="B57" s="274" t="s">
         <v>409</v>
       </c>
-      <c r="C57" s="283"/>
-      <c r="D57" s="283"/>
-      <c r="E57" s="383" t="s">
+      <c r="C57" s="274"/>
+      <c r="D57" s="274"/>
+      <c r="E57" s="368" t="s">
         <v>232</v>
       </c>
-      <c r="F57" s="283"/>
+      <c r="F57" s="274"/>
       <c r="G57" s="53"/>
       <c r="H57" s="53"/>
-      <c r="I57" s="285"/>
+      <c r="I57" s="276"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="283"/>
-      <c r="B58" s="283" t="s">
+      <c r="A58" s="274"/>
+      <c r="B58" s="274" t="s">
         <v>410</v>
       </c>
-      <c r="C58" s="283" t="s">
+      <c r="C58" s="274" t="s">
         <v>508</v>
       </c>
-      <c r="D58" s="283"/>
-      <c r="E58" s="383" t="s">
+      <c r="D58" s="274"/>
+      <c r="E58" s="368" t="s">
         <v>225</v>
       </c>
-      <c r="F58" s="283" t="s">
+      <c r="F58" s="274" t="s">
         <v>556</v>
       </c>
       <c r="G58" s="53" t="s">
         <v>679</v>
       </c>
       <c r="H58" s="53"/>
-      <c r="I58" s="285"/>
+      <c r="I58" s="276"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="283"/>
-      <c r="B59" s="283" t="s">
+      <c r="A59" s="274"/>
+      <c r="B59" s="274" t="s">
         <v>411</v>
       </c>
-      <c r="C59" s="283" t="s">
+      <c r="C59" s="274" t="s">
         <v>414</v>
       </c>
-      <c r="D59" s="283"/>
-      <c r="E59" s="383" t="s">
+      <c r="D59" s="274"/>
+      <c r="E59" s="368" t="s">
         <v>225</v>
       </c>
-      <c r="F59" s="283" t="s">
+      <c r="F59" s="274" t="s">
         <v>442</v>
       </c>
       <c r="G59" s="53" t="s">
@@ -19606,23 +20065,23 @@
       <c r="H59" s="53" t="s">
         <v>616</v>
       </c>
-      <c r="I59" s="285" t="s">
+      <c r="I59" s="276" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="283"/>
-      <c r="B60" s="283" t="s">
+      <c r="A60" s="274"/>
+      <c r="B60" s="274" t="s">
         <v>411</v>
       </c>
-      <c r="C60" s="283" t="s">
+      <c r="C60" s="274" t="s">
         <v>261</v>
       </c>
-      <c r="D60" s="283"/>
-      <c r="E60" s="383" t="s">
+      <c r="D60" s="274"/>
+      <c r="E60" s="368" t="s">
         <v>225</v>
       </c>
-      <c r="F60" s="283" t="s">
+      <c r="F60" s="274" t="s">
         <v>442</v>
       </c>
       <c r="G60" s="53" t="s">
@@ -19631,211 +20090,211 @@
       <c r="H60" s="53" t="s">
         <v>616</v>
       </c>
-      <c r="I60" s="285" t="s">
+      <c r="I60" s="276" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="30">
-      <c r="A61" s="283" t="s">
+      <c r="A61" s="274" t="s">
         <v>698</v>
       </c>
-      <c r="B61" s="283"/>
-      <c r="C61" s="283"/>
-      <c r="D61" s="283"/>
-      <c r="E61" s="383" t="s">
+      <c r="B61" s="274"/>
+      <c r="C61" s="274"/>
+      <c r="D61" s="274"/>
+      <c r="E61" s="368" t="s">
         <v>46</v>
       </c>
-      <c r="F61" s="283" t="s">
+      <c r="F61" s="274" t="s">
         <v>43</v>
       </c>
       <c r="G61" s="53" t="s">
         <v>671</v>
       </c>
       <c r="H61" s="53"/>
-      <c r="I61" s="285"/>
+      <c r="I61" s="276"/>
     </row>
     <row r="62" spans="1:9" ht="30">
-      <c r="A62" s="283" t="s">
+      <c r="A62" s="274" t="s">
         <v>571</v>
       </c>
-      <c r="B62" s="283"/>
-      <c r="C62" s="283"/>
-      <c r="D62" s="283"/>
-      <c r="E62" s="384" t="s">
+      <c r="B62" s="274"/>
+      <c r="C62" s="274"/>
+      <c r="D62" s="274"/>
+      <c r="E62" s="369" t="s">
         <v>46</v>
       </c>
-      <c r="F62" s="283" t="s">
+      <c r="F62" s="274" t="s">
         <v>365</v>
       </c>
       <c r="G62" s="53" t="s">
         <v>670</v>
       </c>
       <c r="H62" s="53"/>
-      <c r="I62" s="285"/>
+      <c r="I62" s="276"/>
     </row>
     <row r="63" spans="1:9" ht="30">
-      <c r="A63" s="283" t="s">
+      <c r="A63" s="274" t="s">
         <v>284</v>
       </c>
-      <c r="B63" s="283"/>
-      <c r="C63" s="283"/>
-      <c r="D63" s="283"/>
-      <c r="E63" s="384" t="s">
+      <c r="B63" s="274"/>
+      <c r="C63" s="274"/>
+      <c r="D63" s="274"/>
+      <c r="E63" s="369" t="s">
         <v>46</v>
       </c>
-      <c r="F63" s="283" t="s">
+      <c r="F63" s="274" t="s">
         <v>285</v>
       </c>
       <c r="G63" s="53" t="s">
         <v>669</v>
       </c>
       <c r="H63" s="53"/>
-      <c r="I63" s="285"/>
+      <c r="I63" s="276"/>
     </row>
     <row r="64" spans="1:9" ht="30">
-      <c r="A64" s="283" t="s">
+      <c r="A64" s="274" t="s">
         <v>572</v>
       </c>
-      <c r="B64" s="283"/>
-      <c r="C64" s="283"/>
-      <c r="D64" s="283"/>
-      <c r="E64" s="384" t="s">
+      <c r="B64" s="274"/>
+      <c r="C64" s="274"/>
+      <c r="D64" s="274"/>
+      <c r="E64" s="369" t="s">
         <v>46</v>
       </c>
-      <c r="F64" s="283" t="s">
+      <c r="F64" s="274" t="s">
         <v>105</v>
       </c>
       <c r="G64" s="53" t="s">
         <v>668</v>
       </c>
       <c r="H64" s="53"/>
-      <c r="I64" s="285"/>
+      <c r="I64" s="276"/>
     </row>
     <row r="65" spans="1:9" ht="30">
-      <c r="A65" s="283" t="s">
+      <c r="A65" s="274" t="s">
         <v>573</v>
       </c>
-      <c r="B65" s="283"/>
-      <c r="C65" s="283"/>
-      <c r="D65" s="283"/>
-      <c r="E65" s="384" t="s">
+      <c r="B65" s="274"/>
+      <c r="C65" s="274"/>
+      <c r="D65" s="274"/>
+      <c r="E65" s="369" t="s">
         <v>46</v>
       </c>
-      <c r="F65" s="283" t="s">
+      <c r="F65" s="274" t="s">
         <v>371</v>
       </c>
       <c r="G65" s="53" t="s">
         <v>667</v>
       </c>
       <c r="H65" s="53"/>
-      <c r="I65" s="285"/>
+      <c r="I65" s="276"/>
     </row>
     <row r="66" spans="1:9" ht="30">
-      <c r="A66" s="283" t="s">
+      <c r="A66" s="274" t="s">
         <v>574</v>
       </c>
-      <c r="B66" s="283"/>
-      <c r="C66" s="283"/>
-      <c r="D66" s="283"/>
-      <c r="E66" s="384" t="s">
+      <c r="B66" s="274"/>
+      <c r="C66" s="274"/>
+      <c r="D66" s="274"/>
+      <c r="E66" s="369" t="s">
         <v>46</v>
       </c>
-      <c r="F66" s="283" t="s">
+      <c r="F66" s="274" t="s">
         <v>575</v>
       </c>
       <c r="G66" s="53" t="s">
         <v>666</v>
       </c>
       <c r="H66" s="53"/>
-      <c r="I66" s="285"/>
+      <c r="I66" s="276"/>
     </row>
     <row r="67" spans="1:9" ht="30">
-      <c r="A67" s="283" t="s">
+      <c r="A67" s="274" t="s">
         <v>576</v>
       </c>
-      <c r="B67" s="283"/>
-      <c r="C67" s="283"/>
-      <c r="D67" s="283"/>
-      <c r="E67" s="384" t="s">
+      <c r="B67" s="274"/>
+      <c r="C67" s="274"/>
+      <c r="D67" s="274"/>
+      <c r="E67" s="369" t="s">
         <v>46</v>
       </c>
-      <c r="F67" s="283" t="s">
+      <c r="F67" s="274" t="s">
         <v>131</v>
       </c>
       <c r="G67" s="53" t="s">
         <v>665</v>
       </c>
       <c r="H67" s="53"/>
-      <c r="I67" s="285"/>
+      <c r="I67" s="276"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="283" t="s">
+      <c r="A68" s="274" t="s">
         <v>577</v>
       </c>
-      <c r="B68" s="283"/>
-      <c r="C68" s="283"/>
-      <c r="D68" s="283"/>
-      <c r="E68" s="384" t="s">
+      <c r="B68" s="274"/>
+      <c r="C68" s="274"/>
+      <c r="D68" s="274"/>
+      <c r="E68" s="369" t="s">
         <v>46</v>
       </c>
-      <c r="F68" s="283" t="s">
+      <c r="F68" s="274" t="s">
         <v>83</v>
       </c>
       <c r="G68" s="53" t="s">
         <v>664</v>
       </c>
       <c r="H68" s="53"/>
-      <c r="I68" s="285"/>
+      <c r="I68" s="276"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="283" t="s">
+      <c r="A69" s="274" t="s">
         <v>355</v>
       </c>
-      <c r="B69" s="283"/>
-      <c r="C69" s="283"/>
-      <c r="D69" s="283"/>
-      <c r="E69" s="384" t="s">
+      <c r="B69" s="274"/>
+      <c r="C69" s="274"/>
+      <c r="D69" s="274"/>
+      <c r="E69" s="369" t="s">
         <v>46</v>
       </c>
-      <c r="F69" s="283" t="s">
+      <c r="F69" s="274" t="s">
         <v>356</v>
       </c>
       <c r="G69" s="53" t="s">
         <v>663</v>
       </c>
       <c r="H69" s="53"/>
-      <c r="I69" s="285"/>
+      <c r="I69" s="276"/>
     </row>
     <row r="70" spans="1:9" ht="75">
-      <c r="A70" s="282" t="s">
+      <c r="A70" s="273" t="s">
         <v>717</v>
       </c>
-      <c r="B70" s="283"/>
-      <c r="C70" s="283"/>
-      <c r="D70" s="283"/>
-      <c r="E70" s="383" t="s">
+      <c r="B70" s="274"/>
+      <c r="C70" s="274"/>
+      <c r="D70" s="274"/>
+      <c r="E70" s="368" t="s">
         <v>46</v>
       </c>
-      <c r="F70" s="283" t="s">
+      <c r="F70" s="274" t="s">
         <v>47</v>
       </c>
       <c r="G70" s="53" t="s">
         <v>716</v>
       </c>
       <c r="H70" s="53"/>
-      <c r="I70" s="285"/>
+      <c r="I70" s="276"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="282"/>
-      <c r="B71" s="283" t="s">
+      <c r="A71" s="273"/>
+      <c r="B71" s="274" t="s">
         <v>421</v>
       </c>
-      <c r="C71" s="283"/>
-      <c r="D71" s="283"/>
-      <c r="E71" s="383" t="s">
+      <c r="C71" s="274"/>
+      <c r="D71" s="274"/>
+      <c r="E71" s="368" t="s">
         <v>46</v>
       </c>
-      <c r="F71" s="283" t="s">
+      <c r="F71" s="274" t="s">
         <v>442</v>
       </c>
       <c r="G71" s="53" t="s">
@@ -19844,57 +20303,57 @@
       <c r="H71" s="53" t="s">
         <v>672</v>
       </c>
-      <c r="I71" s="285" t="s">
+      <c r="I71" s="276" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="28">
-      <c r="A72" s="282" t="s">
+      <c r="A72" s="273" t="s">
         <v>579</v>
       </c>
-      <c r="B72" s="283"/>
-      <c r="C72" s="283"/>
-      <c r="D72" s="283"/>
-      <c r="E72" s="385" t="s">
+      <c r="B72" s="274"/>
+      <c r="C72" s="274"/>
+      <c r="D72" s="274"/>
+      <c r="E72" s="370" t="s">
         <v>232</v>
       </c>
-      <c r="F72" s="283" t="s">
+      <c r="F72" s="274" t="s">
         <v>47</v>
       </c>
       <c r="G72" s="53" t="s">
         <v>699</v>
       </c>
       <c r="H72" s="53"/>
-      <c r="I72" s="285"/>
+      <c r="I72" s="276"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="282"/>
-      <c r="B73" s="283" t="s">
+      <c r="A73" s="273"/>
+      <c r="B73" s="274" t="s">
         <v>409</v>
       </c>
-      <c r="C73" s="283"/>
-      <c r="D73" s="283"/>
-      <c r="E73" s="385" t="s">
+      <c r="C73" s="274"/>
+      <c r="D73" s="274"/>
+      <c r="E73" s="370" t="s">
         <v>232</v>
       </c>
-      <c r="F73" s="283"/>
+      <c r="F73" s="274"/>
       <c r="G73" s="53"/>
       <c r="H73" s="53"/>
-      <c r="I73" s="285"/>
+      <c r="I73" s="276"/>
     </row>
     <row r="74" spans="1:9" ht="42">
-      <c r="A74" s="282"/>
-      <c r="B74" s="283" t="s">
+      <c r="A74" s="273"/>
+      <c r="B74" s="274" t="s">
         <v>410</v>
       </c>
-      <c r="C74" s="283" t="s">
+      <c r="C74" s="274" t="s">
         <v>508</v>
       </c>
-      <c r="D74" s="283"/>
-      <c r="E74" s="385" t="s">
+      <c r="D74" s="274"/>
+      <c r="E74" s="370" t="s">
         <v>218</v>
       </c>
-      <c r="F74" s="283" t="s">
+      <c r="F74" s="274" t="s">
         <v>556</v>
       </c>
       <c r="G74" s="53" t="s">
@@ -19903,23 +20362,23 @@
       <c r="H74" s="53" t="s">
         <v>687</v>
       </c>
-      <c r="I74" s="285" t="s">
+      <c r="I74" s="276" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="30">
-      <c r="A75" s="282"/>
-      <c r="B75" s="283" t="s">
+      <c r="A75" s="273"/>
+      <c r="B75" s="274" t="s">
         <v>411</v>
       </c>
-      <c r="C75" s="283" t="s">
+      <c r="C75" s="274" t="s">
         <v>414</v>
       </c>
-      <c r="D75" s="283"/>
-      <c r="E75" s="385" t="s">
+      <c r="D75" s="274"/>
+      <c r="E75" s="370" t="s">
         <v>218</v>
       </c>
-      <c r="F75" s="283" t="s">
+      <c r="F75" s="274" t="s">
         <v>442</v>
       </c>
       <c r="G75" s="53" t="s">
@@ -19928,23 +20387,23 @@
       <c r="H75" s="53" t="s">
         <v>672</v>
       </c>
-      <c r="I75" s="285" t="s">
+      <c r="I75" s="276" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="282"/>
-      <c r="B76" s="283" t="s">
+      <c r="A76" s="273"/>
+      <c r="B76" s="274" t="s">
         <v>411</v>
       </c>
-      <c r="C76" s="283" t="s">
+      <c r="C76" s="274" t="s">
         <v>261</v>
       </c>
-      <c r="D76" s="283"/>
-      <c r="E76" s="385" t="s">
+      <c r="D76" s="274"/>
+      <c r="E76" s="370" t="s">
         <v>218</v>
       </c>
-      <c r="F76" s="283" t="s">
+      <c r="F76" s="274" t="s">
         <v>442</v>
       </c>
       <c r="G76" s="53" t="s">
@@ -19953,21 +20412,21 @@
       <c r="H76" s="53" t="s">
         <v>672</v>
       </c>
-      <c r="I76" s="285" t="s">
+      <c r="I76" s="276" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="282"/>
-      <c r="B77" s="283" t="s">
+      <c r="A77" s="273"/>
+      <c r="B77" s="274" t="s">
         <v>421</v>
       </c>
-      <c r="C77" s="283"/>
-      <c r="D77" s="283"/>
-      <c r="E77" s="385" t="s">
+      <c r="C77" s="274"/>
+      <c r="D77" s="274"/>
+      <c r="E77" s="370" t="s">
         <v>218</v>
       </c>
-      <c r="F77" s="283" t="s">
+      <c r="F77" s="274" t="s">
         <v>442</v>
       </c>
       <c r="G77" s="53" t="s">
@@ -19976,154 +20435,154 @@
       <c r="H77" s="53" t="s">
         <v>672</v>
       </c>
-      <c r="I77" s="386" t="s">
+      <c r="I77" s="371" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="282" t="s">
+      <c r="A78" s="273" t="s">
         <v>253</v>
       </c>
-      <c r="B78" s="283"/>
-      <c r="C78" s="283"/>
-      <c r="D78" s="283"/>
-      <c r="E78" s="387" t="s">
+      <c r="B78" s="274"/>
+      <c r="C78" s="274"/>
+      <c r="D78" s="274"/>
+      <c r="E78" s="372" t="s">
         <v>19</v>
       </c>
-      <c r="F78" s="283"/>
+      <c r="F78" s="274"/>
       <c r="G78" s="53" t="s">
         <v>586</v>
       </c>
       <c r="H78" s="53"/>
-      <c r="I78" s="285"/>
+      <c r="I78" s="276"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="282"/>
-      <c r="B79" s="283" t="s">
+      <c r="A79" s="273"/>
+      <c r="B79" s="274" t="s">
         <v>254</v>
       </c>
-      <c r="C79" s="283"/>
-      <c r="D79" s="283"/>
-      <c r="E79" s="387" t="s">
+      <c r="C79" s="274"/>
+      <c r="D79" s="274"/>
+      <c r="E79" s="372" t="s">
         <v>46</v>
       </c>
-      <c r="F79" s="283"/>
+      <c r="F79" s="274"/>
       <c r="G79" s="53" t="s">
         <v>587</v>
       </c>
       <c r="H79" s="53"/>
-      <c r="I79" s="285"/>
+      <c r="I79" s="276"/>
     </row>
     <row r="80" spans="1:9" ht="28">
-      <c r="A80" s="282"/>
-      <c r="B80" s="283"/>
-      <c r="C80" s="283" t="s">
+      <c r="A80" s="273"/>
+      <c r="B80" s="274"/>
+      <c r="C80" s="274" t="s">
         <v>127</v>
       </c>
-      <c r="D80" s="283"/>
-      <c r="E80" s="387" t="s">
+      <c r="D80" s="274"/>
+      <c r="E80" s="372" t="s">
         <v>46</v>
       </c>
-      <c r="F80" s="283" t="s">
+      <c r="F80" s="274" t="s">
         <v>43</v>
       </c>
       <c r="G80" s="53" t="s">
         <v>128</v>
       </c>
       <c r="H80" s="53"/>
-      <c r="I80" s="285" t="s">
+      <c r="I80" s="276" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="282"/>
-      <c r="B81" s="283" t="s">
+      <c r="A81" s="273"/>
+      <c r="B81" s="274" t="s">
         <v>131</v>
       </c>
-      <c r="C81" s="283"/>
-      <c r="D81" s="283"/>
-      <c r="E81" s="387" t="s">
+      <c r="C81" s="274"/>
+      <c r="D81" s="274"/>
+      <c r="E81" s="372" t="s">
         <v>46</v>
       </c>
-      <c r="F81" s="283" t="s">
+      <c r="F81" s="274" t="s">
         <v>83</v>
       </c>
       <c r="G81" s="53" t="s">
         <v>588</v>
       </c>
       <c r="H81" s="53"/>
-      <c r="I81" s="285"/>
+      <c r="I81" s="276"/>
     </row>
     <row r="82" spans="1:9" ht="30">
-      <c r="A82" s="282"/>
-      <c r="B82" s="283" t="s">
+      <c r="A82" s="273"/>
+      <c r="B82" s="274" t="s">
         <v>56</v>
       </c>
-      <c r="C82" s="283"/>
-      <c r="D82" s="283"/>
-      <c r="E82" s="387" t="s">
+      <c r="C82" s="274"/>
+      <c r="D82" s="274"/>
+      <c r="E82" s="372" t="s">
         <v>10</v>
       </c>
-      <c r="F82" s="283" t="s">
+      <c r="F82" s="274" t="s">
         <v>133</v>
       </c>
       <c r="G82" s="53" t="s">
         <v>589</v>
       </c>
       <c r="H82" s="53"/>
-      <c r="I82" s="285"/>
+      <c r="I82" s="276"/>
     </row>
     <row r="83" spans="1:9" ht="30">
-      <c r="A83" s="282" t="s">
+      <c r="A83" s="273" t="s">
         <v>368</v>
       </c>
-      <c r="B83" s="283"/>
-      <c r="C83" s="283"/>
-      <c r="D83" s="283"/>
-      <c r="E83" s="387" t="s">
+      <c r="B83" s="274"/>
+      <c r="C83" s="274"/>
+      <c r="D83" s="274"/>
+      <c r="E83" s="372" t="s">
         <v>46</v>
       </c>
-      <c r="F83" s="283" t="s">
+      <c r="F83" s="274" t="s">
         <v>47</v>
       </c>
       <c r="G83" s="53" t="s">
         <v>719</v>
       </c>
       <c r="H83" s="53"/>
-      <c r="I83" s="285"/>
+      <c r="I83" s="276"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="282"/>
-      <c r="B84" s="283" t="s">
+      <c r="A84" s="273"/>
+      <c r="B84" s="274" t="s">
         <v>494</v>
       </c>
-      <c r="C84" s="283" t="s">
+      <c r="C84" s="274" t="s">
         <v>421</v>
       </c>
-      <c r="D84" s="283"/>
-      <c r="E84" s="387" t="s">
+      <c r="D84" s="274"/>
+      <c r="E84" s="372" t="s">
         <v>225</v>
       </c>
-      <c r="F84" s="283" t="s">
+      <c r="F84" s="274" t="s">
         <v>43</v>
       </c>
-      <c r="G84" s="283" t="s">
+      <c r="G84" s="274" t="s">
         <v>673</v>
       </c>
-      <c r="H84" s="283"/>
-      <c r="I84" s="285"/>
+      <c r="H84" s="274"/>
+      <c r="I84" s="276"/>
     </row>
     <row r="85" spans="1:9" ht="75">
-      <c r="A85" s="282" t="s">
+      <c r="A85" s="273" t="s">
         <v>580</v>
       </c>
-      <c r="B85" s="388"/>
-      <c r="C85" s="388"/>
-      <c r="D85" s="388"/>
-      <c r="E85" s="389" t="s">
+      <c r="B85" s="373"/>
+      <c r="C85" s="373"/>
+      <c r="D85" s="373"/>
+      <c r="E85" s="374" t="s">
         <v>225</v>
       </c>
-      <c r="F85" s="283" t="s">
+      <c r="F85" s="274" t="s">
         <v>581</v>
       </c>
       <c r="G85" s="37" t="s">
@@ -20132,12 +20591,12 @@
       <c r="H85" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="I85" s="303" t="s">
+      <c r="I85" s="294" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="150">
-      <c r="A86" s="288"/>
+      <c r="A86" s="279"/>
       <c r="B86" s="37"/>
       <c r="C86" s="37"/>
       <c r="D86" s="37"/>
@@ -20149,21 +20608,21 @@
       <c r="H86" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="I86" s="303" t="s">
+      <c r="I86" s="294" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="390"/>
-      <c r="B87" s="391" t="s">
+      <c r="A87" s="375"/>
+      <c r="B87" s="376" t="s">
         <v>533</v>
       </c>
-      <c r="C87" s="391"/>
-      <c r="D87" s="391"/>
-      <c r="E87" s="391" t="s">
+      <c r="C87" s="376"/>
+      <c r="D87" s="376"/>
+      <c r="E87" s="376" t="s">
         <v>218</v>
       </c>
-      <c r="F87" s="391" t="s">
+      <c r="F87" s="376" t="s">
         <v>442</v>
       </c>
       <c r="G87" s="37" t="s">
@@ -20172,21 +20631,21 @@
       <c r="H87" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="I87" s="392" t="s">
+      <c r="I87" s="377" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="390"/>
-      <c r="B88" s="391" t="s">
+      <c r="A88" s="375"/>
+      <c r="B88" s="376" t="s">
         <v>261</v>
       </c>
-      <c r="C88" s="391"/>
-      <c r="D88" s="391"/>
-      <c r="E88" s="391" t="s">
+      <c r="C88" s="376"/>
+      <c r="D88" s="376"/>
+      <c r="E88" s="376" t="s">
         <v>218</v>
       </c>
-      <c r="F88" s="391" t="s">
+      <c r="F88" s="376" t="s">
         <v>442</v>
       </c>
       <c r="G88" s="37" t="s">
@@ -20195,177 +20654,177 @@
       <c r="H88" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="I88" s="393" t="s">
+      <c r="I88" s="378" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="30">
-      <c r="A89" s="282" t="s">
+      <c r="A89" s="273" t="s">
         <v>712</v>
       </c>
-      <c r="B89" s="283"/>
-      <c r="C89" s="283"/>
-      <c r="D89" s="283"/>
-      <c r="E89" s="385" t="s">
+      <c r="B89" s="274"/>
+      <c r="C89" s="274"/>
+      <c r="D89" s="274"/>
+      <c r="E89" s="370" t="s">
         <v>281</v>
       </c>
-      <c r="F89" s="283" t="s">
+      <c r="F89" s="274" t="s">
         <v>136</v>
       </c>
       <c r="G89" s="53" t="s">
         <v>713</v>
       </c>
       <c r="H89" s="53"/>
-      <c r="I89" s="285"/>
+      <c r="I89" s="276"/>
     </row>
     <row r="90" spans="1:9" ht="28">
-      <c r="A90" s="282"/>
-      <c r="B90" s="283" t="s">
+      <c r="A90" s="273"/>
+      <c r="B90" s="274" t="s">
         <v>107</v>
       </c>
-      <c r="C90" s="283"/>
-      <c r="D90" s="283"/>
-      <c r="E90" s="385" t="s">
+      <c r="C90" s="274"/>
+      <c r="D90" s="274"/>
+      <c r="E90" s="370" t="s">
         <v>46</v>
       </c>
-      <c r="F90" s="283" t="s">
+      <c r="F90" s="274" t="s">
         <v>108</v>
       </c>
-      <c r="G90" s="283"/>
-      <c r="H90" s="283"/>
-      <c r="I90" s="285"/>
+      <c r="G90" s="274"/>
+      <c r="H90" s="274"/>
+      <c r="I90" s="276"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="282"/>
-      <c r="B91" s="283"/>
-      <c r="C91" s="283" t="s">
+      <c r="A91" s="273"/>
+      <c r="B91" s="274"/>
+      <c r="C91" s="274" t="s">
         <v>42</v>
       </c>
-      <c r="D91" s="283"/>
-      <c r="E91" s="385" t="s">
+      <c r="D91" s="274"/>
+      <c r="E91" s="370" t="s">
         <v>10</v>
       </c>
-      <c r="F91" s="283" t="s">
+      <c r="F91" s="274" t="s">
         <v>88</v>
       </c>
       <c r="G91" s="53" t="s">
         <v>590</v>
       </c>
       <c r="H91" s="53"/>
-      <c r="I91" s="285"/>
+      <c r="I91" s="276"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="282"/>
-      <c r="B92" s="283"/>
-      <c r="C92" s="283" t="s">
+      <c r="A92" s="273"/>
+      <c r="B92" s="274"/>
+      <c r="C92" s="274" t="s">
         <v>93</v>
       </c>
-      <c r="D92" s="283"/>
-      <c r="E92" s="385" t="s">
+      <c r="D92" s="274"/>
+      <c r="E92" s="370" t="s">
         <v>10</v>
       </c>
-      <c r="F92" s="283" t="s">
+      <c r="F92" s="274" t="s">
         <v>43</v>
       </c>
       <c r="G92" s="53" t="s">
         <v>591</v>
       </c>
       <c r="H92" s="53"/>
-      <c r="I92" s="285" t="s">
+      <c r="I92" s="276" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="282"/>
-      <c r="B93" s="283"/>
-      <c r="C93" s="283" t="s">
+      <c r="A93" s="273"/>
+      <c r="B93" s="274"/>
+      <c r="C93" s="274" t="s">
         <v>24</v>
       </c>
-      <c r="D93" s="283"/>
-      <c r="E93" s="385" t="s">
+      <c r="D93" s="274"/>
+      <c r="E93" s="370" t="s">
         <v>10</v>
       </c>
-      <c r="F93" s="283" t="s">
+      <c r="F93" s="274" t="s">
         <v>25</v>
       </c>
       <c r="G93" s="53" t="s">
         <v>592</v>
       </c>
       <c r="H93" s="53"/>
-      <c r="I93" s="285" t="s">
+      <c r="I93" s="276" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="282"/>
-      <c r="B94" s="283"/>
-      <c r="C94" s="283" t="s">
+      <c r="A94" s="273"/>
+      <c r="B94" s="274"/>
+      <c r="C94" s="274" t="s">
         <v>29</v>
       </c>
-      <c r="D94" s="283"/>
-      <c r="E94" s="385" t="s">
+      <c r="D94" s="274"/>
+      <c r="E94" s="370" t="s">
         <v>10</v>
       </c>
-      <c r="F94" s="283" t="s">
+      <c r="F94" s="274" t="s">
         <v>29</v>
       </c>
       <c r="G94" s="53" t="s">
         <v>290</v>
       </c>
       <c r="H94" s="53"/>
-      <c r="I94" s="285" t="s">
+      <c r="I94" s="276" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="28">
-      <c r="A95" s="282"/>
-      <c r="B95" s="283" t="s">
+      <c r="A95" s="273"/>
+      <c r="B95" s="274" t="s">
         <v>110</v>
       </c>
-      <c r="C95" s="283"/>
-      <c r="D95" s="283"/>
-      <c r="E95" s="385" t="s">
+      <c r="C95" s="274"/>
+      <c r="D95" s="274"/>
+      <c r="E95" s="370" t="s">
         <v>46</v>
       </c>
-      <c r="F95" s="283" t="s">
+      <c r="F95" s="274" t="s">
         <v>583</v>
       </c>
       <c r="G95" s="53" t="s">
         <v>593</v>
       </c>
       <c r="H95" s="53"/>
-      <c r="I95" s="285"/>
+      <c r="I95" s="276"/>
     </row>
     <row r="96" spans="1:9" ht="30">
-      <c r="A96" s="282"/>
-      <c r="B96" s="283" t="s">
+      <c r="A96" s="273"/>
+      <c r="B96" s="274" t="s">
         <v>56</v>
       </c>
-      <c r="C96" s="283"/>
-      <c r="D96" s="283"/>
-      <c r="E96" s="385" t="s">
+      <c r="C96" s="274"/>
+      <c r="D96" s="274"/>
+      <c r="E96" s="370" t="s">
         <v>46</v>
       </c>
-      <c r="F96" s="283" t="s">
+      <c r="F96" s="274" t="s">
         <v>488</v>
       </c>
       <c r="G96" s="53" t="s">
         <v>688</v>
       </c>
       <c r="H96" s="53"/>
-      <c r="I96" s="285"/>
+      <c r="I96" s="276"/>
     </row>
     <row r="97" spans="1:9" ht="165">
-      <c r="A97" s="282" t="s">
+      <c r="A97" s="273" t="s">
         <v>689</v>
       </c>
       <c r="B97" s="37"/>
       <c r="C97" s="37"/>
       <c r="D97" s="37"/>
-      <c r="E97" s="383" t="s">
+      <c r="E97" s="368" t="s">
         <v>19</v>
       </c>
-      <c r="F97" s="283" t="s">
+      <c r="F97" s="274" t="s">
         <v>690</v>
       </c>
       <c r="G97" s="37" t="s">
@@ -20374,123 +20833,123 @@
       <c r="H97" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="I97" s="303" t="s">
+      <c r="I97" s="294" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="120">
-      <c r="A98" s="282" t="s">
+      <c r="A98" s="273" t="s">
         <v>584</v>
       </c>
-      <c r="B98" s="283"/>
-      <c r="C98" s="283"/>
-      <c r="D98" s="283"/>
-      <c r="E98" s="383" t="s">
+      <c r="B98" s="274"/>
+      <c r="C98" s="274"/>
+      <c r="D98" s="274"/>
+      <c r="E98" s="368" t="s">
         <v>19</v>
       </c>
-      <c r="F98" s="283" t="s">
+      <c r="F98" s="274" t="s">
         <v>136</v>
       </c>
       <c r="G98" s="53" t="s">
         <v>691</v>
       </c>
       <c r="H98" s="53"/>
-      <c r="I98" s="285"/>
+      <c r="I98" s="276"/>
     </row>
     <row r="99" spans="1:9" ht="28">
-      <c r="A99" s="282"/>
-      <c r="B99" s="283" t="s">
+      <c r="A99" s="273"/>
+      <c r="B99" s="274" t="s">
         <v>29</v>
       </c>
-      <c r="C99" s="283"/>
-      <c r="D99" s="283"/>
-      <c r="E99" s="383" t="s">
+      <c r="C99" s="274"/>
+      <c r="D99" s="274"/>
+      <c r="E99" s="368" t="s">
         <v>10</v>
       </c>
-      <c r="F99" s="283" t="s">
+      <c r="F99" s="274" t="s">
         <v>47</v>
       </c>
-      <c r="G99" s="283" t="s">
+      <c r="G99" s="274" t="s">
         <v>594</v>
       </c>
-      <c r="H99" s="283"/>
-      <c r="I99" s="285"/>
+      <c r="H99" s="274"/>
+      <c r="I99" s="276"/>
     </row>
     <row r="100" spans="1:9" ht="60">
-      <c r="A100" s="282"/>
-      <c r="B100" s="283" t="s">
+      <c r="A100" s="273"/>
+      <c r="B100" s="274" t="s">
         <v>570</v>
       </c>
-      <c r="C100" s="283"/>
-      <c r="D100" s="283"/>
-      <c r="E100" s="383" t="s">
+      <c r="C100" s="274"/>
+      <c r="D100" s="274"/>
+      <c r="E100" s="368" t="s">
         <v>46</v>
       </c>
-      <c r="F100" s="283" t="s">
+      <c r="F100" s="274" t="s">
         <v>585</v>
       </c>
-      <c r="G100" s="283" t="s">
+      <c r="G100" s="274" t="s">
         <v>595</v>
       </c>
-      <c r="H100" s="283"/>
-      <c r="I100" s="285"/>
+      <c r="H100" s="274"/>
+      <c r="I100" s="276"/>
     </row>
     <row r="101" spans="1:9" ht="28">
-      <c r="A101" s="282"/>
-      <c r="B101" s="283" t="s">
+      <c r="A101" s="273"/>
+      <c r="B101" s="274" t="s">
         <v>578</v>
       </c>
-      <c r="C101" s="283"/>
-      <c r="D101" s="283"/>
-      <c r="E101" s="383" t="s">
+      <c r="C101" s="274"/>
+      <c r="D101" s="274"/>
+      <c r="E101" s="368" t="s">
         <v>46</v>
       </c>
-      <c r="F101" s="283" t="s">
+      <c r="F101" s="274" t="s">
         <v>47</v>
       </c>
-      <c r="G101" s="283" t="s">
+      <c r="G101" s="274" t="s">
         <v>596</v>
       </c>
-      <c r="H101" s="283"/>
-      <c r="I101" s="285"/>
+      <c r="H101" s="274"/>
+      <c r="I101" s="276"/>
     </row>
     <row r="102" spans="1:9" ht="28">
-      <c r="A102" s="282"/>
-      <c r="B102" s="283" t="s">
+      <c r="A102" s="273"/>
+      <c r="B102" s="274" t="s">
         <v>579</v>
       </c>
-      <c r="C102" s="283"/>
-      <c r="D102" s="283"/>
-      <c r="E102" s="383" t="s">
+      <c r="C102" s="274"/>
+      <c r="D102" s="274"/>
+      <c r="E102" s="368" t="s">
         <v>36</v>
       </c>
-      <c r="F102" s="283" t="s">
+      <c r="F102" s="274" t="s">
         <v>47</v>
       </c>
-      <c r="G102" s="283" t="s">
+      <c r="G102" s="274" t="s">
         <v>597</v>
       </c>
-      <c r="H102" s="283"/>
-      <c r="I102" s="285"/>
+      <c r="H102" s="274"/>
+      <c r="I102" s="276"/>
     </row>
     <row r="103" spans="1:9" ht="29" thickBot="1">
-      <c r="A103" s="394"/>
-      <c r="B103" s="395" t="s">
+      <c r="A103" s="379"/>
+      <c r="B103" s="380" t="s">
         <v>582</v>
       </c>
-      <c r="C103" s="395"/>
-      <c r="D103" s="395"/>
-      <c r="E103" s="396" t="s">
+      <c r="C103" s="380"/>
+      <c r="D103" s="380"/>
+      <c r="E103" s="381" t="s">
         <v>36</v>
       </c>
-      <c r="F103" s="395" t="s">
+      <c r="F103" s="380" t="s">
         <v>136</v>
       </c>
-      <c r="G103" s="395" t="s">
+      <c r="G103" s="380" t="s">
         <v>598</v>
       </c>
-      <c r="H103" s="395"/>
-      <c r="I103" s="344"/>
+      <c r="H103" s="380"/>
+      <c r="I103" s="335"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -20532,17 +20991,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="46" customHeight="1" thickBot="1">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="382" t="s">
         <v>723</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="268"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
-      <c r="F1" s="268"/>
-      <c r="G1" s="268"/>
-      <c r="H1" s="268"/>
-      <c r="I1" s="268"/>
+      <c r="B1" s="382"/>
+      <c r="C1" s="382"/>
+      <c r="D1" s="382"/>
+      <c r="E1" s="382"/>
+      <c r="F1" s="382"/>
+      <c r="G1" s="382"/>
+      <c r="H1" s="382"/>
+      <c r="I1" s="382"/>
     </row>
     <row r="2" spans="1:9" ht="75">
       <c r="A2" s="166" t="s">
@@ -22433,7 +22892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3324F69-8E84-A848-A7FF-2D5A2318CA27}">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" zoomScale="125" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
@@ -22450,17 +22909,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="51" customHeight="1" thickBot="1">
-      <c r="A1" s="275" t="s">
+      <c r="A1" s="396" t="s">
         <v>723</v>
       </c>
-      <c r="B1" s="275"/>
-      <c r="C1" s="275"/>
-      <c r="D1" s="275"/>
-      <c r="E1" s="275"/>
-      <c r="F1" s="275"/>
-      <c r="G1" s="275"/>
-      <c r="H1" s="275"/>
-      <c r="I1" s="275"/>
+      <c r="B1" s="396"/>
+      <c r="C1" s="396"/>
+      <c r="D1" s="396"/>
+      <c r="E1" s="396"/>
+      <c r="F1" s="396"/>
+      <c r="G1" s="396"/>
+      <c r="H1" s="396"/>
+      <c r="I1" s="396"/>
     </row>
     <row r="2" spans="1:9" ht="75">
       <c r="A2" s="1" t="s">
@@ -23658,4 +24117,540 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA92E4C-6FC3-1D48-B01E-54D12D9CB0C9}">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="166" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="261" customWidth="1"/>
+    <col min="2" max="4" width="7.85546875" style="261" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" style="261" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="261" customWidth="1"/>
+    <col min="7" max="7" width="38.42578125" style="261" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" style="261" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" style="267" customWidth="1"/>
+    <col min="10" max="16384" width="10.7109375" style="261"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="51" customHeight="1" thickBot="1">
+      <c r="A1" s="396" t="s">
+        <v>723</v>
+      </c>
+      <c r="B1" s="396"/>
+      <c r="C1" s="396"/>
+      <c r="D1" s="396"/>
+      <c r="E1" s="396"/>
+      <c r="F1" s="396"/>
+      <c r="G1" s="396"/>
+      <c r="H1" s="396"/>
+      <c r="I1" s="396"/>
+    </row>
+    <row r="2" spans="1:9" ht="75">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="251" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="251" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="251" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="252" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="251" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="251" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="251" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="253" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30">
+      <c r="A3" s="207" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="217"/>
+      <c r="C3" s="217"/>
+      <c r="D3" s="217"/>
+      <c r="E3" s="254" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="217"/>
+      <c r="G3" s="255" t="s">
+        <v>877</v>
+      </c>
+      <c r="H3" s="217" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="256" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="207" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="217"/>
+      <c r="C4" s="217"/>
+      <c r="D4" s="217"/>
+      <c r="E4" s="400" t="s">
+        <v>225</v>
+      </c>
+      <c r="F4" s="217" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="217" t="s">
+        <v>172</v>
+      </c>
+      <c r="H4" s="217"/>
+      <c r="I4" s="256"/>
+    </row>
+    <row r="5" spans="1:9" ht="255">
+      <c r="A5" s="207" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="217" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="217"/>
+      <c r="D5" s="217"/>
+      <c r="E5" s="400" t="s">
+        <v>225</v>
+      </c>
+      <c r="F5" s="217" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="217" t="s">
+        <v>260</v>
+      </c>
+      <c r="H5" s="217" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="256" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="75">
+      <c r="A6" s="207" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="217" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="217"/>
+      <c r="D6" s="217"/>
+      <c r="E6" s="400" t="s">
+        <v>216</v>
+      </c>
+      <c r="F6" s="217" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="259" t="s">
+        <v>880</v>
+      </c>
+      <c r="H6" s="217" t="s">
+        <v>722</v>
+      </c>
+      <c r="I6" s="189" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" customFormat="1" ht="45">
+      <c r="A7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="249" t="s">
+        <v>216</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>881</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="229"/>
+    </row>
+    <row r="8" spans="1:9" customFormat="1" ht="63">
+      <c r="A8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="249" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="219" t="s">
+        <v>882</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" customFormat="1" ht="120">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="249" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>884</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="I9" s="229" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="131" customHeight="1">
+      <c r="A10" s="262" t="s">
+        <v>844</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="263" t="s">
+        <v>216</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>886</v>
+      </c>
+      <c r="H10" s="29"/>
+      <c r="I10" s="256"/>
+    </row>
+    <row r="11" spans="1:9" ht="42">
+      <c r="A11" s="262" t="s">
+        <v>864</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="263" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29" t="s">
+        <v>888</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>722</v>
+      </c>
+      <c r="I11" s="189" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="211" customHeight="1">
+      <c r="A12" s="262" t="s">
+        <v>865</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="263" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29" t="s">
+        <v>892</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>672</v>
+      </c>
+      <c r="I12" s="256" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30">
+      <c r="A13" s="262" t="s">
+        <v>533</v>
+      </c>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="263" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>890</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>722</v>
+      </c>
+      <c r="I13" s="256" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="62" customHeight="1">
+      <c r="A14" s="262" t="s">
+        <v>891</v>
+      </c>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="263" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>694</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>894</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="I14" s="256" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30">
+      <c r="A15" s="262" t="s">
+        <v>895</v>
+      </c>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="263" t="s">
+        <v>216</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>896</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>897</v>
+      </c>
+      <c r="H15" s="29"/>
+      <c r="I15" s="256"/>
+    </row>
+    <row r="16" spans="1:9" ht="56" customHeight="1">
+      <c r="A16" s="262" t="s">
+        <v>898</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>899</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="263" t="s">
+        <v>225</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>556</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>911</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="I16" s="256" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="225">
+      <c r="A17" s="262" t="s">
+        <v>902</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>903</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="263" t="s">
+        <v>225</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>904</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>912</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="I17" s="256" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="75">
+      <c r="A18" s="262" t="s">
+        <v>898</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>899</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="401" t="s">
+        <v>218</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>556</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>914</v>
+      </c>
+      <c r="H18" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="I18" s="256" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="225">
+      <c r="A19" s="262" t="s">
+        <v>902</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>903</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="401" t="s">
+        <v>232</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>908</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="I19" s="256" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="32" customHeight="1">
+      <c r="A20" s="397" t="s">
+        <v>906</v>
+      </c>
+      <c r="B20" s="398"/>
+      <c r="C20" s="398"/>
+      <c r="D20" s="398"/>
+      <c r="E20" s="398"/>
+      <c r="F20" s="398"/>
+      <c r="G20" s="398"/>
+      <c r="H20" s="398"/>
+      <c r="I20" s="399"/>
+    </row>
+    <row r="21" spans="1:9" ht="30">
+      <c r="A21" s="262" t="s">
+        <v>898</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>899</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="401" t="s">
+        <v>225</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>556</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>901</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="I21" s="256" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="225">
+      <c r="A22" s="262" t="s">
+        <v>902</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>903</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="401" t="s">
+        <v>225</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>908</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>910</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="I22" s="256" t="s">
+        <v>909</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A20:I20"/>
+  </mergeCells>
+  <phoneticPr fontId="26"/>
+  <hyperlinks>
+    <hyperlink ref="I6" r:id="rId1" xr:uid="{2E73B75B-5DE8-F041-98F0-4A2A2B57C1EE}"/>
+    <hyperlink ref="I8" r:id="rId2" xr:uid="{89D11DF3-7D1A-5843-83F6-68C56C37777B}"/>
+    <hyperlink ref="I11" r:id="rId3" xr:uid="{03AAEEE3-0C19-9542-8318-15EDFC7B0D52}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>